--- a/Datos/Database by set/Set with text box/Xlsx sets/Astral Cards (PAST).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Astral Cards (PAST).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,420 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aswan Jaguar</t>
+          <t>('Aswan Jaguar', ['{1}{G}{G}', 'Summon Jaguar', 'When Aswan Jaguar comes into play, choose a random creature type from those in target opponent’s deck.', '{G}{G}, {T}: Bury target creature of the chosen type.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{G}{G}</t>
+          <t>('Call from the Grave', ['{2}{B}', 'Sorcery', 'Put a random creature from a random graveyard into play under your control. Call from the Grave deals to you an amount of damage equal to that creature’s casting cost.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summon Jaguar</t>
+          <t>('Faerie Dragon', ['{2}{G}{G}', 'Summon Dragon', 'Flying', '{1}{G}{G}: Play a random effect.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Aswan Jaguar comes into play, choose a random creature type from those in target opponent’s deck.</t>
+          <t>('Gem Bazaar', ['Land', 'When Gem Bazaar comes into play, choose a random color.', '{T}: Add to your mana pool one mana of the color last chosen. Then choose a random color.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{G}{G}, {T}: Bury target creature of the chosen type.</t>
+          <t>('Goblin Polka Band', ['{R}{R}', 'Summon Goblin', '{2}, {T}, Pay {R} for each target: Tap any number of random target creatures. Goblins tapped in this way do not untap during their controllers’ next untap phases.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Necropolis of Azar', ['{2}{B}{B}', 'Enchantment', 'Whenever a non-black creature is put into any graveyard from play, put a husk counter on Necropolis of Azar.', '{5}, Remove a husk counter from Necropolis of Azar: Put a Spawn of Azar token into play. Treat this token as a black creature with a random power and toughness, each no less than 1 and no greater than 3, that has swampwalk.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Call from the Grave</t>
+          <t>('Orcish Catapult', ['{X}{R}{R}', 'Instant', 'Randomly distribute X -0/-1 counters among a random number of random target creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{2}{B}</t>
+          <t>("Pandora's Box", ['{5}', 'Artifact', '{3}, {T}: Choose a random summon card from all players’ decks. For each player, flip a coin. If the flip ends up heads, put a token creature into play and treat it as though an exact copy of the chosen summon card were just played.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Power Struggle', ['{2}{U}{U}{U}', 'Enchantment', 'During each player’s upkeep, that player exchanges control of random target artifact, creature or land he or she controls, for control of random target permanent of the same type that a random opponent controls.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Put a random creature from a random graveyard into play under your control. Call from the Grave deals to you an amount of damage equal to that creature’s casting cost.</t>
+          <t>('Prismatic Dragon', ['{2}{W}{W}', 'Summon Dragon', 'Flying', 'During your upkeep, Prismatic Dragon becomes a random color permanently.', '{2}: Prismatic Dragon becomes a random color permanently.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Faerie Dragon</t>
+          <t>('Rainbow Knights', ['{W}{W}', 'Summon Knights', 'When Rainbow Knights comes into play, it gains protection from a random color permanently.', '{1}: First strike until end of turn.', '{W}{W}: +0/+0, +1/+0 or +2/+0 until end of turn chosen at random.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Summon Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{G}{G}: Play a random effect.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Gem Bazaar</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>When Gem Bazaar comes into play, choose a random color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{T}: Add to your mana pool one mana of the color last chosen. Then choose a random color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Goblin Polka Band</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Summon Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{2}, {T}, Pay {R} for each target: Tap any number of random target creatures. Goblins tapped in this way do not untap during their controllers’ next untap phases.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Necropolis of Azar</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Whenever a non-black creature is put into any graveyard from play, put a husk counter on Necropolis of Azar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{5}, Remove a husk counter from Necropolis of Azar: Put a Spawn of Azar token into play. Treat this token as a black creature with a random power and toughness, each no less than 1 and no greater than 3, that has swampwalk.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Orcish Catapult</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{X}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Randomly distribute X -0/-1 counters among a random number of random target creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pandora's Box</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{5}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{3}, {T}: Choose a random summon card from all players’ decks. For each player, flip a coin. If the flip ends up heads, put a token creature into play and treat it as though an exact copy of the chosen summon card were just played.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Power Struggle</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>During each player’s upkeep, that player exchanges control of random target artifact, creature or land he or she controls, for control of random target permanent of the same type that a random opponent controls.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Prismatic Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Summon Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>During your upkeep, Prismatic Dragon becomes a random color permanently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{2}: Prismatic Dragon becomes a random color permanently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Rainbow Knights</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Summon Knights</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>When Rainbow Knights comes into play, it gains protection from a random color permanently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{1}: First strike until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{W}{W}: +0/+0, +1/+0 or +2/+0 until end of turn chosen at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Whimsy</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{X}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Play X random fast effects.</t>
+          <t>('Whimsy', ['{X}{U}{U}', 'Sorcery', 'Play X random fast effects.'])</t>
         </is>
       </c>
     </row>
